--- a/Матрица.xlsx
+++ b/Матрица.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>текущий
 символ</t>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>цифра</t>
-  </si>
-  <si>
-    <t>Ключ слово</t>
   </si>
   <si>
     <t>если КС то новое КС(1)
@@ -244,20 +241,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -267,10 +259,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -551,24 +544,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="24.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,26 +580,8 @@
       <c r="G1">
         <v>4</v>
       </c>
-      <c r="H1">
-        <v>5</v>
-      </c>
-      <c r="I1">
-        <v>6</v>
-      </c>
-      <c r="J1">
-        <v>7</v>
-      </c>
-      <c r="K1">
-        <v>8</v>
-      </c>
-      <c r="L1">
-        <v>9</v>
-      </c>
-      <c r="M1">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,236 +602,97 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
     </row>
-    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Матрица.xlsx
+++ b/Матрица.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>текущий
 символ</t>
@@ -41,9 +41,81 @@
     <t>новая константа(0)</t>
   </si>
   <si>
+    <t>константа</t>
+  </si>
+  <si>
+    <t>(0)</t>
+  </si>
+  <si>
+    <t>(2)</t>
+  </si>
+  <si>
+    <t>(3)</t>
+  </si>
+  <si>
+    <t>буква</t>
+  </si>
+  <si>
+    <t>(1)</t>
+  </si>
+  <si>
+    <t>разделитель (" ","\n","\t")</t>
+  </si>
+  <si>
+    <t>новый оператор(0)</t>
+  </si>
+  <si>
+    <t>новый оператор(3)</t>
+  </si>
+  <si>
+    <t>слово</t>
+  </si>
+  <si>
+    <t>если КС то новое КС(0)
+иначе новый ид(0)</t>
+  </si>
+  <si>
+    <t>новый оператор(2)</t>
+  </si>
+  <si>
+    <t>ошибка</t>
+  </si>
+  <si>
+    <t>не в алфавите</t>
+  </si>
+  <si>
+    <t>цифра</t>
+  </si>
+  <si>
+    <t>если КС то новое КС(1)
+иначе новый ид(1)</t>
+  </si>
+  <si>
+    <t>однострочный
+ комментарий</t>
+  </si>
+  <si>
+    <t>(4)</t>
+  </si>
+  <si>
+    <t>многострочный
+комментарий</t>
+  </si>
+  <si>
+    <t>(5)</t>
+  </si>
+  <si>
+    <t>если */ то (0) иначе (5)</t>
+  </si>
+  <si>
+    <t>если "\n" то (0) иначе (4)</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">если == или != то 
-новый оператор(0)
+новый оператор(0),
+иначе если // то(4)
+иначе если /* то(5)
 иначе </t>
     </r>
     <r>
@@ -58,56 +130,6 @@
       </rPr>
       <t>ошибка</t>
     </r>
-  </si>
-  <si>
-    <t>константа</t>
-  </si>
-  <si>
-    <t>(0)</t>
-  </si>
-  <si>
-    <t>(2)</t>
-  </si>
-  <si>
-    <t>(3)</t>
-  </si>
-  <si>
-    <t>буква</t>
-  </si>
-  <si>
-    <t>(1)</t>
-  </si>
-  <si>
-    <t>разделитель (" ","\n","\t")</t>
-  </si>
-  <si>
-    <t>новый оператор(0)</t>
-  </si>
-  <si>
-    <t>новый оператор(3)</t>
-  </si>
-  <si>
-    <t>слово</t>
-  </si>
-  <si>
-    <t>если КС то новое КС(0)
-иначе новый ид(0)</t>
-  </si>
-  <si>
-    <t>новый оператор(2)</t>
-  </si>
-  <si>
-    <t>ошибка</t>
-  </si>
-  <si>
-    <t>не в алфавите</t>
-  </si>
-  <si>
-    <t>цифра</t>
-  </si>
-  <si>
-    <t>если КС то новое КС(1)
-иначе новый ид(1)</t>
   </si>
 </sst>
 </file>
@@ -241,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -262,8 +284,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -544,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,19 +614,19 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -610,22 +637,22 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="G3" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
@@ -633,19 +660,19 @@
         <v>2</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="G4" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="29" x14ac:dyDescent="0.35">
@@ -653,45 +680,91 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>19</v>
+      <c r="E6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
